--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_11.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-362577.4639170802</v>
+        <v>-307434.3421317143</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17393893.48890402</v>
+        <v>16693787.93026804</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484452</v>
+        <v>492028.9342484445</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9039619.018718749</v>
+        <v>9050440.071864476</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>248.2979378436725</v>
       </c>
       <c r="D2" t="n">
-        <v>284.3353719371198</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -722,7 +722,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>64.58216279976261</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -880,10 +880,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>189.9879808696989</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>419.9023013107135</v>
       </c>
       <c r="E5" t="n">
-        <v>417.2307129546712</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>106.7004437127882</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>199.4521447952249</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1136,16 +1136,16 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>70.15278520373103</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>214.494720579135</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1199,7 +1199,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1303,10 +1303,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>73.01514676193516</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1351,10 +1351,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>29.18399242614296</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>395.0589320733474</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>89.78027874887835</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1433,7 +1433,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1534,7 +1534,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>77.14020824927461</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790326</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>214.505317665866</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>102.7148832575099</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>35.51678257079519</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1853,7 +1853,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>339.9669309447419</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -1907,7 +1907,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>124.9383271063093</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617052</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2081,7 +2081,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>350.1392237382694</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2147,7 +2147,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>197.0059058611719</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2239,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>24.62703520776708</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>118.4105505036712</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2530,10 +2530,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436918</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.55329631630735</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225773</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225763</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225706</v>
+        <v>18.05677735225694</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>405.8008644413113</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>417.5253377496635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>415.3149766385525</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1481427242214</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>270.0031426724685</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925547</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>240.3943693174059</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>342.7550702267644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>384.5711897043296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>398.715328447735</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>387.9675521245957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856832</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277821</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432403</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934458</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>141.4132446762359</v>
+        <v>34.71811217257907</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006783</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095265</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>226.7021267811743</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999609</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083131</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972021</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131899</v>
       </c>
       <c r="F38" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147865</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828709</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311181</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925398</v>
+        <v>71.12675199790354</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>206.177951775594</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760573</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854139</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043296</v>
+        <v>389.1182969629792</v>
       </c>
       <c r="X38" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063846</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832453</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>178.2118294516994</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>159.1474913215095</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317452</v>
+        <v>152.5306097903947</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730227</v>
+        <v>156.3718206316723</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>163.2513804177635</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443328</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277818</v>
+        <v>94.49262140739322</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432412</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934458</v>
+        <v>9.515040001584017</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762359</v>
+        <v>145.9603519348855</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772315</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593279</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095265</v>
+        <v>272.397349968176</v>
       </c>
       <c r="W40" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894735</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398238</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>213.456870898935</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999609</v>
       </c>
       <c r="C41" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083131</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972021</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131899</v>
       </c>
       <c r="F41" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147865</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828709</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311181</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925398</v>
+        <v>71.12675199790354</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169444</v>
+        <v>206.177951775594</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760555</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854139</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043296</v>
+        <v>389.1182969629792</v>
       </c>
       <c r="X41" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063846</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832453</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>178.2118294516994</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628599</v>
+        <v>159.1474913215095</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>152.5306097903947</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730227</v>
+        <v>156.3718206316723</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>163.2513804177635</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443328</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277818</v>
+        <v>126.8145494864314</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432403</v>
+        <v>76.08474665297359</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934458</v>
+        <v>9.515040001584019</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762359</v>
+        <v>37.55367720287371</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772315</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593279</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095265</v>
+        <v>272.397349968176</v>
       </c>
       <c r="W43" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894735</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398238</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402854</v>
+        <v>213.456870898935</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999609</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083131</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972021</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131899</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147865</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828709</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311181</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925398</v>
+        <v>71.12675199790537</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169444</v>
+        <v>206.177951775594</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760555</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854139</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043296</v>
+        <v>389.1182969629792</v>
       </c>
       <c r="X44" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063846</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832453</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>178.2118294516994</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>159.1474913215095</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>152.5306097903947</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>156.3718206316723</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>163.2513804177635</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443328</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277815</v>
+        <v>27.92291475600275</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432403</v>
+        <v>76.08474665297359</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934458</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>145.9603519348855</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772315</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593279</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>272.397349968176</v>
       </c>
       <c r="W46" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894735</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398238</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>213.456870898935</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>408.8145501306011</v>
+        <v>793.6783655277644</v>
       </c>
       <c r="C2" t="n">
-        <v>374.7124813544285</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>855.2769502042993</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W2" t="n">
-        <v>450.4214956153326</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X2" t="n">
-        <v>435.3194362350473</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y2" t="n">
-        <v>431.0737165751048</v>
+        <v>1219.977936012672</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.8381257054811</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C4" t="n">
-        <v>187.8381257054811</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D4" t="n">
-        <v>187.8381257054811</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E4" t="n">
-        <v>187.8381257054811</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F4" t="n">
-        <v>187.8381257054811</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G4" t="n">
-        <v>187.8381257054811</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L4" t="n">
-        <v>120.5233537662982</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
-        <v>540.5762527112014</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>960.6291516561047</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W4" t="n">
-        <v>433.2298803720686</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X4" t="n">
-        <v>187.8381257054811</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.8381257054811</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1351.042333103999</v>
+        <v>969.2487943945847</v>
       </c>
       <c r="C5" t="n">
-        <v>1316.940264327826</v>
+        <v>531.106321578008</v>
       </c>
       <c r="D5" t="n">
-        <v>1285.070883542675</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>863.6257189419966</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1393.464329137293</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>1393.464329137293</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V5" t="n">
-        <v>1393.464329137293</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W5" t="n">
-        <v>1392.64927858873</v>
+        <v>2222.976952000528</v>
       </c>
       <c r="X5" t="n">
-        <v>1377.547219208445</v>
+        <v>1803.834488579839</v>
       </c>
       <c r="Y5" t="n">
-        <v>1373.301499548503</v>
+        <v>1395.548364879493</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>858.7506050139928</v>
+        <v>826.9659278567121</v>
       </c>
       <c r="C7" t="n">
-        <v>686.1888934972177</v>
+        <v>654.4042163399371</v>
       </c>
       <c r="D7" t="n">
-        <v>520.3109006987404</v>
+        <v>488.5262235414597</v>
       </c>
       <c r="E7" t="n">
-        <v>350.5528969494776</v>
+        <v>318.768219792197</v>
       </c>
       <c r="F7" t="n">
-        <v>173.8458429112338</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>269.215608100497</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1567.987382813276</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1567.987382813276</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1567.987382813276</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1567.987382813276</v>
+        <v>1763.622376341887</v>
       </c>
       <c r="W7" t="n">
-        <v>1295.960978399567</v>
+        <v>1491.595971928179</v>
       </c>
       <c r="X7" t="n">
-        <v>1050.56922373298</v>
+        <v>1246.204217261591</v>
       </c>
       <c r="Y7" t="n">
-        <v>1050.56922373298</v>
+        <v>1018.784546575699</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1014.758006992385</v>
+        <v>1382.829461272046</v>
       </c>
       <c r="C8" t="n">
-        <v>980.6559382162122</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D8" t="n">
-        <v>909.7945390205243</v>
+        <v>912.8176076703178</v>
       </c>
       <c r="E8" t="n">
-        <v>476.0197941788196</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F8" t="n">
-        <v>48.15236458802728</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>48.15236458802728</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>48.15236458802728</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>47.73557521516728</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>482.9902626680852</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>482.9902626680852</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>482.9902626680852</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>482.9902626680852</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>489.6704234713225</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1080.398166759018</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1671.125910046713</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2217.624696005307</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2386.778760758364</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2303.126886942201</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2083.05965981524</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1823.837357132257</v>
+        <v>2233.332265386148</v>
       </c>
       <c r="V8" t="n">
-        <v>1461.220407066083</v>
+        <v>2233.332265386148</v>
       </c>
       <c r="W8" t="n">
-        <v>1460.40535651752</v>
+        <v>2232.517214837585</v>
       </c>
       <c r="X8" t="n">
-        <v>1445.303297137235</v>
+        <v>2217.4151554573</v>
       </c>
       <c r="Y8" t="n">
-        <v>1441.057577477293</v>
+        <v>1809.129031756954</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>553.9073202064601</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>447.4508590431024</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>352.3605701896556</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>258.2401555166093</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>174.8563171327709</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>89.47122739895481</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>47.73557521516728</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>73.79924837562487</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>398.3575733418372</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>989.0853166295323</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L9" t="n">
-        <v>1053.063619967561</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="M9" t="n">
-        <v>1053.063619967561</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="N9" t="n">
-        <v>1053.063619967561</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="O9" t="n">
-        <v>1053.063619967561</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="P9" t="n">
-        <v>1053.063619967561</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q9" t="n">
-        <v>1593.802558599637</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R9" t="n">
-        <v>1710.975336693976</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1647.519899142359</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1517.341255472961</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1341.004708472929</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1141.887190534929</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>956.5644362681226</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>801.6970005070025</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>675.2112212862232</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1126.793735827049</v>
+        <v>826.9659278567121</v>
       </c>
       <c r="C10" t="n">
-        <v>954.2320243102737</v>
+        <v>654.4042163399371</v>
       </c>
       <c r="D10" t="n">
-        <v>788.3540315117964</v>
+        <v>488.5262235414597</v>
       </c>
       <c r="E10" t="n">
-        <v>618.5960277625336</v>
+        <v>318.768219792197</v>
       </c>
       <c r="F10" t="n">
-        <v>441.8889737242898</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G10" t="n">
-        <v>276.2976987501174</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>136.395524440492</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>47.73557521516728</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>134.3152603798571</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>134.3152603798571</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>552.5251421478182</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1012.009009328731</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1454.267812486376</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1873.937061712157</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2221.443955682499</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2386.778760758364</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2386.778760758364</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2386.778760758364</v>
+        <v>2574.890331639896</v>
       </c>
       <c r="T10" t="n">
-        <v>2140.899314336819</v>
+        <v>2329.010885218351</v>
       </c>
       <c r="U10" t="n">
-        <v>1862.466313589925</v>
+        <v>2050.577884471456</v>
       </c>
       <c r="V10" t="n">
-        <v>1575.510805460355</v>
+        <v>1763.622376341887</v>
       </c>
       <c r="W10" t="n">
-        <v>1575.510805460355</v>
+        <v>1491.595971928179</v>
       </c>
       <c r="X10" t="n">
-        <v>1546.032025231928</v>
+        <v>1246.204217261591</v>
       </c>
       <c r="Y10" t="n">
-        <v>1318.612354546036</v>
+        <v>1018.784546575699</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2520.969386844472</v>
+        <v>2480.029960793487</v>
       </c>
       <c r="C11" t="n">
-        <v>2082.826914027895</v>
+        <v>2080.980534456772</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.917129202339</v>
+        <v>1645.070749631217</v>
       </c>
       <c r="E11" t="n">
-        <v>1213.142384360634</v>
+        <v>1211.296004789512</v>
       </c>
       <c r="F11" t="n">
-        <v>785.2749547698421</v>
+        <v>783.4285751987196</v>
       </c>
       <c r="G11" t="n">
-        <v>383.877123393106</v>
+        <v>382.0307438219835</v>
       </c>
       <c r="H11" t="n">
-        <v>94.74696883632222</v>
+        <v>92.90058926519978</v>
       </c>
       <c r="I11" t="n">
-        <v>94.33017946346223</v>
+        <v>92.90058926519978</v>
       </c>
       <c r="J11" t="n">
-        <v>529.5848669163801</v>
+        <v>528.1552767181176</v>
       </c>
       <c r="K11" t="n">
-        <v>812.1714023146591</v>
+        <v>1362.505568676296</v>
       </c>
       <c r="L11" t="n">
-        <v>1887.231368567518</v>
+        <v>2290.041135897692</v>
       </c>
       <c r="M11" t="n">
-        <v>3044.279203778069</v>
+        <v>2290.041135897692</v>
       </c>
       <c r="N11" t="n">
-        <v>4170.010187214516</v>
+        <v>2290.041135897692</v>
       </c>
       <c r="O11" t="n">
-        <v>4170.010187214516</v>
+        <v>3270.220802467998</v>
       </c>
       <c r="P11" t="n">
-        <v>4170.010187214516</v>
+        <v>4098.530677301394</v>
       </c>
       <c r="Q11" t="n">
-        <v>4716.508973173111</v>
+        <v>4645.029463259989</v>
       </c>
       <c r="R11" t="n">
-        <v>4716.508973173111</v>
+        <v>4645.029463259989</v>
       </c>
       <c r="S11" t="n">
-        <v>4632.857099356948</v>
+        <v>4561.377589443826</v>
       </c>
       <c r="T11" t="n">
-        <v>4542.169949105555</v>
+        <v>4341.310362316864</v>
       </c>
       <c r="U11" t="n">
-        <v>4542.169949105555</v>
+        <v>4082.088059633881</v>
       </c>
       <c r="V11" t="n">
-        <v>4179.552999039382</v>
+        <v>3719.471109567708</v>
       </c>
       <c r="W11" t="n">
-        <v>3774.697544450415</v>
+        <v>3314.615654978741</v>
       </c>
       <c r="X11" t="n">
-        <v>3355.555081029726</v>
+        <v>3314.615654978741</v>
       </c>
       <c r="Y11" t="n">
-        <v>2947.268957329379</v>
+        <v>2906.329531278394</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>600.501924454755</v>
+        <v>599.0723342564926</v>
       </c>
       <c r="C12" t="n">
-        <v>494.0454632913973</v>
+        <v>492.6158730931348</v>
       </c>
       <c r="D12" t="n">
-        <v>398.9551744379506</v>
+        <v>397.5255842396881</v>
       </c>
       <c r="E12" t="n">
-        <v>304.8347597649043</v>
+        <v>303.4051695666418</v>
       </c>
       <c r="F12" t="n">
-        <v>221.4509213810659</v>
+        <v>220.0213311828034</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0658316472498</v>
+        <v>134.6362414489873</v>
       </c>
       <c r="H12" t="n">
-        <v>94.33017946346223</v>
+        <v>92.90058926519978</v>
       </c>
       <c r="I12" t="n">
-        <v>120.3938526239198</v>
+        <v>118.9642624256574</v>
       </c>
       <c r="J12" t="n">
-        <v>444.9521775901322</v>
+        <v>443.5225873918697</v>
       </c>
       <c r="K12" t="n">
-        <v>1125.68569766051</v>
+        <v>443.5225873918697</v>
       </c>
       <c r="L12" t="n">
-        <v>1125.68569766051</v>
+        <v>443.5225873918697</v>
       </c>
       <c r="M12" t="n">
-        <v>1125.68569766051</v>
+        <v>443.5225873918697</v>
       </c>
       <c r="N12" t="n">
-        <v>1125.68569766051</v>
+        <v>443.5225873918697</v>
       </c>
       <c r="O12" t="n">
-        <v>1125.68569766051</v>
+        <v>443.5225873918697</v>
       </c>
       <c r="P12" t="n">
-        <v>1125.68569766051</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="Q12" t="n">
-        <v>1666.424636292585</v>
+        <v>1638.967572649669</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.569940942271</v>
+        <v>1756.140350744009</v>
       </c>
       <c r="S12" t="n">
-        <v>1694.114503390654</v>
+        <v>1692.684913192392</v>
       </c>
       <c r="T12" t="n">
-        <v>1563.935859721256</v>
+        <v>1562.506269522993</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.599312721224</v>
+        <v>1386.169722522962</v>
       </c>
       <c r="V12" t="n">
-        <v>1188.481794783223</v>
+        <v>1187.052204584961</v>
       </c>
       <c r="W12" t="n">
-        <v>1003.159040516417</v>
+        <v>1001.729450318155</v>
       </c>
       <c r="X12" t="n">
-        <v>848.2916047552974</v>
+        <v>846.862014557035</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.8058255345181</v>
+        <v>720.3762353362557</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>863.7281620164554</v>
+        <v>943.3966263421311</v>
       </c>
       <c r="C13" t="n">
-        <v>691.1664504996804</v>
+        <v>770.834914825356</v>
       </c>
       <c r="D13" t="n">
-        <v>525.288457701203</v>
+        <v>604.9569220268788</v>
       </c>
       <c r="E13" t="n">
-        <v>525.288457701203</v>
+        <v>435.198918277616</v>
       </c>
       <c r="F13" t="n">
-        <v>348.5814036629592</v>
+        <v>258.4918642393723</v>
       </c>
       <c r="G13" t="n">
-        <v>182.9901286887869</v>
+        <v>92.90058926519987</v>
       </c>
       <c r="H13" t="n">
-        <v>182.9901286887869</v>
+        <v>92.90058926519978</v>
       </c>
       <c r="I13" t="n">
-        <v>94.33017946346223</v>
+        <v>92.90058926519978</v>
       </c>
       <c r="J13" t="n">
-        <v>180.9098646281521</v>
+        <v>179.4802744298896</v>
       </c>
       <c r="K13" t="n">
-        <v>455.6683191992877</v>
+        <v>454.2387290010253</v>
       </c>
       <c r="L13" t="n">
-        <v>873.8782009672487</v>
+        <v>872.4486107689863</v>
       </c>
       <c r="M13" t="n">
-        <v>1333.362068148162</v>
+        <v>1331.932477949899</v>
       </c>
       <c r="N13" t="n">
-        <v>1775.620871305806</v>
+        <v>1774.191281107544</v>
       </c>
       <c r="O13" t="n">
-        <v>2195.290120531588</v>
+        <v>2193.860530333325</v>
       </c>
       <c r="P13" t="n">
-        <v>2542.79701450193</v>
+        <v>2541.367424303667</v>
       </c>
       <c r="Q13" t="n">
-        <v>2710.989789366262</v>
+        <v>2709.560199168</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.571968071634</v>
+        <v>2709.560199168</v>
       </c>
       <c r="S13" t="n">
-        <v>2611.652565799639</v>
+        <v>2691.321030125315</v>
       </c>
       <c r="T13" t="n">
-        <v>2365.773119378094</v>
+        <v>2445.44158370377</v>
       </c>
       <c r="U13" t="n">
-        <v>2087.340118631199</v>
+        <v>2167.008582956876</v>
       </c>
       <c r="V13" t="n">
-        <v>1800.38461050163</v>
+        <v>1880.053074827306</v>
       </c>
       <c r="W13" t="n">
-        <v>1528.358206087921</v>
+        <v>1608.026670413597</v>
       </c>
       <c r="X13" t="n">
-        <v>1282.966451421334</v>
+        <v>1362.63491574701</v>
       </c>
       <c r="Y13" t="n">
-        <v>1055.546780735443</v>
+        <v>1135.215245061118</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2520.552597471612</v>
+        <v>2233.374692844385</v>
       </c>
       <c r="C14" t="n">
-        <v>2082.410124655035</v>
+        <v>1795.232220027808</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.500339829479</v>
+        <v>1359.322435202253</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.725594987774</v>
+        <v>925.5476903605477</v>
       </c>
       <c r="F14" t="n">
-        <v>784.8581653969823</v>
+        <v>497.6802607697555</v>
       </c>
       <c r="G14" t="n">
-        <v>383.4603340202461</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="H14" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="I14" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="J14" t="n">
-        <v>529.5848669163801</v>
+        <v>531.5371168459368</v>
       </c>
       <c r="K14" t="n">
-        <v>1363.935158874558</v>
+        <v>1365.887408804115</v>
       </c>
       <c r="L14" t="n">
-        <v>2192.366581057758</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="M14" t="n">
-        <v>2192.366581057758</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="N14" t="n">
-        <v>2192.366581057758</v>
+        <v>2459.133142288647</v>
       </c>
       <c r="O14" t="n">
-        <v>3172.546247628064</v>
+        <v>3439.312808858954</v>
       </c>
       <c r="P14" t="n">
-        <v>4000.85612246146</v>
+        <v>4267.62268369235</v>
       </c>
       <c r="Q14" t="n">
-        <v>4547.354908420055</v>
+        <v>4814.121469650944</v>
       </c>
       <c r="R14" t="n">
-        <v>4716.508973173111</v>
+        <v>4814.121469650944</v>
       </c>
       <c r="S14" t="n">
-        <v>4716.508973173111</v>
+        <v>4730.469595834781</v>
       </c>
       <c r="T14" t="n">
-        <v>4496.44174604615</v>
+        <v>4513.797557788452</v>
       </c>
       <c r="U14" t="n">
-        <v>4237.219443363167</v>
+        <v>4254.575255105468</v>
       </c>
       <c r="V14" t="n">
-        <v>3874.602493296993</v>
+        <v>3891.958305039295</v>
       </c>
       <c r="W14" t="n">
-        <v>3469.747038708027</v>
+        <v>3487.102850450328</v>
       </c>
       <c r="X14" t="n">
-        <v>3050.604575287337</v>
+        <v>3067.960387029639</v>
       </c>
       <c r="Y14" t="n">
-        <v>2946.852167956519</v>
+        <v>2659.674263329292</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>600.501924454755</v>
+        <v>602.4541743843117</v>
       </c>
       <c r="C15" t="n">
-        <v>494.0454632913973</v>
+        <v>495.997713220954</v>
       </c>
       <c r="D15" t="n">
-        <v>398.9551744379506</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E15" t="n">
-        <v>304.8347597649043</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F15" t="n">
-        <v>221.4509213810659</v>
+        <v>223.4031713106226</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0658316472498</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H15" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="I15" t="n">
-        <v>120.3938526239198</v>
+        <v>122.3461025534765</v>
       </c>
       <c r="J15" t="n">
-        <v>444.9521775901322</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="K15" t="n">
-        <v>444.9521775901322</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="L15" t="n">
-        <v>444.9521775901322</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="M15" t="n">
-        <v>444.9521775901322</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="N15" t="n">
-        <v>444.9521775901322</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="O15" t="n">
-        <v>444.9521775901322</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="P15" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="Q15" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S15" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T15" t="n">
-        <v>1563.935859721256</v>
+        <v>1565.888109650813</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.599312721224</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V15" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W15" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X15" t="n">
-        <v>848.2916047552974</v>
+        <v>850.2438546848541</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.8058255345181</v>
+        <v>723.7580754640749</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1069.361703716016</v>
+        <v>946.7784664699502</v>
       </c>
       <c r="C16" t="n">
-        <v>896.7999921992413</v>
+        <v>774.2167549531752</v>
       </c>
       <c r="D16" t="n">
-        <v>730.921999400764</v>
+        <v>608.3387621546979</v>
       </c>
       <c r="E16" t="n">
-        <v>561.1639956515012</v>
+        <v>438.5807584054351</v>
       </c>
       <c r="F16" t="n">
-        <v>384.4569416132574</v>
+        <v>261.8737043671912</v>
       </c>
       <c r="G16" t="n">
-        <v>218.8656666390851</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="H16" t="n">
-        <v>182.9901286887869</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="I16" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="J16" t="n">
-        <v>180.9098646281521</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K16" t="n">
-        <v>455.6683191992877</v>
+        <v>457.6205691288444</v>
       </c>
       <c r="L16" t="n">
-        <v>873.8782009672487</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M16" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N16" t="n">
-        <v>1775.620871305806</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O16" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P16" t="n">
-        <v>2542.79701450193</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q16" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R16" t="n">
-        <v>2689.571968071634</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S16" t="n">
-        <v>2530.330599369631</v>
+        <v>2694.702870253134</v>
       </c>
       <c r="T16" t="n">
-        <v>2284.451152948086</v>
+        <v>2448.823423831589</v>
       </c>
       <c r="U16" t="n">
-        <v>2006.018152201191</v>
+        <v>2170.390423084694</v>
       </c>
       <c r="V16" t="n">
-        <v>2006.018152201191</v>
+        <v>1883.434914955125</v>
       </c>
       <c r="W16" t="n">
-        <v>1733.991747787483</v>
+        <v>1611.408510541416</v>
       </c>
       <c r="X16" t="n">
-        <v>1488.599993120895</v>
+        <v>1366.016755874829</v>
       </c>
       <c r="Y16" t="n">
-        <v>1261.180322435004</v>
+        <v>1138.597085188937</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2436.086108229044</v>
+        <v>2522.921636774028</v>
       </c>
       <c r="C17" t="n">
-        <v>1997.943635412468</v>
+        <v>2084.779163957451</v>
       </c>
       <c r="D17" t="n">
-        <v>1562.033850586912</v>
+        <v>1648.869379131896</v>
       </c>
       <c r="E17" t="n">
-        <v>1128.259105745207</v>
+        <v>1215.094634290191</v>
       </c>
       <c r="F17" t="n">
-        <v>784.858165396982</v>
+        <v>787.2272046993987</v>
       </c>
       <c r="G17" t="n">
-        <v>383.460334020246</v>
+        <v>385.8293733226627</v>
       </c>
       <c r="H17" t="n">
-        <v>94.33017946346223</v>
+        <v>96.69921876587888</v>
       </c>
       <c r="I17" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="J17" t="n">
-        <v>529.5848669163801</v>
+        <v>531.5371168459368</v>
       </c>
       <c r="K17" t="n">
-        <v>1363.935158874558</v>
+        <v>1333.4021588522</v>
       </c>
       <c r="L17" t="n">
-        <v>2438.995125127417</v>
+        <v>1333.4021588522</v>
       </c>
       <c r="M17" t="n">
-        <v>2438.995125127417</v>
+        <v>1333.4021588522</v>
       </c>
       <c r="N17" t="n">
-        <v>2438.995125127417</v>
+        <v>2459.133142288647</v>
       </c>
       <c r="O17" t="n">
-        <v>3419.174791697724</v>
+        <v>3439.312808858954</v>
       </c>
       <c r="P17" t="n">
-        <v>4247.484666531121</v>
+        <v>4267.62268369235</v>
       </c>
       <c r="Q17" t="n">
-        <v>4716.508973173111</v>
+        <v>4814.121469650944</v>
       </c>
       <c r="R17" t="n">
-        <v>4716.508973173111</v>
+        <v>4814.121469650944</v>
       </c>
       <c r="S17" t="n">
-        <v>4716.508973173111</v>
+        <v>4730.469595834781</v>
       </c>
       <c r="T17" t="n">
-        <v>4716.508973173111</v>
+        <v>4510.40236870782</v>
       </c>
       <c r="U17" t="n">
-        <v>4457.286670490128</v>
+        <v>4251.180066024836</v>
       </c>
       <c r="V17" t="n">
-        <v>4094.669720423954</v>
+        <v>3888.563115958663</v>
       </c>
       <c r="W17" t="n">
-        <v>3689.814265834988</v>
+        <v>3483.707661369696</v>
       </c>
       <c r="X17" t="n">
-        <v>3270.671802414299</v>
+        <v>3357.507330959283</v>
       </c>
       <c r="Y17" t="n">
-        <v>2862.385678713952</v>
+        <v>2949.221207258936</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>600.501924454755</v>
+        <v>602.4541743843117</v>
       </c>
       <c r="C18" t="n">
-        <v>494.0454632913973</v>
+        <v>495.997713220954</v>
       </c>
       <c r="D18" t="n">
-        <v>398.9551744379506</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E18" t="n">
-        <v>304.8347597649043</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F18" t="n">
-        <v>221.4509213810659</v>
+        <v>223.4031713106226</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0658316472498</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H18" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="I18" t="n">
-        <v>120.3938526239198</v>
+        <v>122.3461025534765</v>
       </c>
       <c r="J18" t="n">
-        <v>444.9521775901322</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="K18" t="n">
-        <v>444.9521775901322</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="L18" t="n">
-        <v>444.9521775901322</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="M18" t="n">
-        <v>444.9521775901322</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="N18" t="n">
-        <v>444.9521775901322</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="O18" t="n">
-        <v>444.9521775901322</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="P18" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="Q18" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R18" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S18" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T18" t="n">
-        <v>1563.935859721256</v>
+        <v>1565.888109650813</v>
       </c>
       <c r="U18" t="n">
-        <v>1387.599312721224</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V18" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W18" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X18" t="n">
-        <v>848.2916047552974</v>
+        <v>850.2438546848541</v>
       </c>
       <c r="Y18" t="n">
-        <v>721.8058255345181</v>
+        <v>723.7580754640749</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>944.8262165403935</v>
+        <v>805.7762668106315</v>
       </c>
       <c r="C19" t="n">
-        <v>772.2645050236185</v>
+        <v>633.2145552938564</v>
       </c>
       <c r="D19" t="n">
-        <v>606.3865122251411</v>
+        <v>467.3365624953792</v>
       </c>
       <c r="E19" t="n">
-        <v>436.6285084758784</v>
+        <v>297.5785587461164</v>
       </c>
       <c r="F19" t="n">
-        <v>259.9214544376346</v>
+        <v>120.8715047078726</v>
       </c>
       <c r="G19" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="H19" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="I19" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="J19" t="n">
-        <v>180.9098646281521</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K19" t="n">
-        <v>455.6683191992877</v>
+        <v>457.6205691288444</v>
       </c>
       <c r="L19" t="n">
-        <v>873.8782009672487</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M19" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N19" t="n">
-        <v>1775.620871305806</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O19" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P19" t="n">
-        <v>2542.79701450193</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q19" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R19" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S19" t="n">
-        <v>2692.750620323578</v>
+        <v>2553.700670593815</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.871173902033</v>
+        <v>2307.821224172271</v>
       </c>
       <c r="U19" t="n">
-        <v>2168.438173155138</v>
+        <v>2029.388223425376</v>
       </c>
       <c r="V19" t="n">
-        <v>1881.482665025568</v>
+        <v>1742.432715295806</v>
       </c>
       <c r="W19" t="n">
-        <v>1609.45626061186</v>
+        <v>1470.406310882098</v>
       </c>
       <c r="X19" t="n">
-        <v>1364.064505945272</v>
+        <v>1225.01455621551</v>
       </c>
       <c r="Y19" t="n">
-        <v>1136.644835259381</v>
+        <v>997.5948855296185</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2436.086108229044</v>
+        <v>2522.921636774028</v>
       </c>
       <c r="C20" t="n">
-        <v>2082.410124655035</v>
+        <v>2084.779163957451</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.500339829479</v>
+        <v>1648.869379131896</v>
       </c>
       <c r="E20" t="n">
-        <v>1212.725594987774</v>
+        <v>1215.094634290191</v>
       </c>
       <c r="F20" t="n">
-        <v>784.858165396982</v>
+        <v>787.2272046993987</v>
       </c>
       <c r="G20" t="n">
-        <v>383.460334020246</v>
+        <v>385.8293733226626</v>
       </c>
       <c r="H20" t="n">
-        <v>94.33017946346223</v>
+        <v>96.69921876587888</v>
       </c>
       <c r="I20" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="J20" t="n">
-        <v>94.33017946346223</v>
+        <v>531.5371168459368</v>
       </c>
       <c r="K20" t="n">
-        <v>928.6804714216402</v>
+        <v>1365.887408804115</v>
       </c>
       <c r="L20" t="n">
-        <v>2003.740437674499</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="M20" t="n">
-        <v>2361.520645810814</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="N20" t="n">
-        <v>2361.520645810814</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="O20" t="n">
-        <v>3341.70031238112</v>
+        <v>3421.127041627281</v>
       </c>
       <c r="P20" t="n">
-        <v>4170.010187214516</v>
+        <v>4249.436916460677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4716.508973173111</v>
+        <v>4795.935702419271</v>
       </c>
       <c r="R20" t="n">
-        <v>4716.508973173111</v>
+        <v>4814.121469650944</v>
       </c>
       <c r="S20" t="n">
-        <v>4716.508973173111</v>
+        <v>4814.121469650944</v>
       </c>
       <c r="T20" t="n">
-        <v>4716.508973173111</v>
+        <v>4594.054242523983</v>
       </c>
       <c r="U20" t="n">
-        <v>4457.286670490128</v>
+        <v>4334.831939840999</v>
       </c>
       <c r="V20" t="n">
-        <v>4094.669720423954</v>
+        <v>3972.214989774826</v>
       </c>
       <c r="W20" t="n">
-        <v>3689.814265834988</v>
+        <v>3567.359535185859</v>
       </c>
       <c r="X20" t="n">
-        <v>3270.671802414299</v>
+        <v>3148.21707176517</v>
       </c>
       <c r="Y20" t="n">
-        <v>2862.385678713952</v>
+        <v>2949.221207258935</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>600.501924454755</v>
+        <v>602.4541743843117</v>
       </c>
       <c r="C21" t="n">
-        <v>494.0454632913973</v>
+        <v>495.997713220954</v>
       </c>
       <c r="D21" t="n">
-        <v>398.9551744379506</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E21" t="n">
-        <v>304.8347597649043</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F21" t="n">
-        <v>221.4509213810659</v>
+        <v>223.4031713106226</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0658316472498</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H21" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="I21" t="n">
-        <v>120.3938526239198</v>
+        <v>122.3461025534765</v>
       </c>
       <c r="J21" t="n">
-        <v>444.9521775901322</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="K21" t="n">
-        <v>444.9521775901322</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="L21" t="n">
-        <v>444.9521775901322</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="M21" t="n">
-        <v>444.9521775901322</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="N21" t="n">
-        <v>444.9521775901322</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="O21" t="n">
-        <v>444.9521775901322</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="P21" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="Q21" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R21" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S21" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T21" t="n">
-        <v>1563.935859721256</v>
+        <v>1565.888109650813</v>
       </c>
       <c r="U21" t="n">
-        <v>1387.599312721224</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V21" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W21" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X21" t="n">
-        <v>848.2916047552974</v>
+        <v>850.2438546848541</v>
       </c>
       <c r="Y21" t="n">
-        <v>721.8058255345181</v>
+        <v>723.7580754640749</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8240168810748</v>
+        <v>805.776266810631</v>
       </c>
       <c r="C22" t="n">
-        <v>631.2623053642998</v>
+        <v>805.776266810631</v>
       </c>
       <c r="D22" t="n">
-        <v>606.3865122251411</v>
+        <v>639.8982740121537</v>
       </c>
       <c r="E22" t="n">
-        <v>436.6285084758784</v>
+        <v>470.1402702628909</v>
       </c>
       <c r="F22" t="n">
-        <v>259.9214544376346</v>
+        <v>470.1402702628909</v>
       </c>
       <c r="G22" t="n">
-        <v>94.33017946346223</v>
+        <v>304.5489952887186</v>
       </c>
       <c r="H22" t="n">
-        <v>94.33017946346223</v>
+        <v>184.9423786183436</v>
       </c>
       <c r="I22" t="n">
-        <v>94.33017946346223</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="J22" t="n">
-        <v>180.9098646281521</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K22" t="n">
-        <v>455.6683191992877</v>
+        <v>457.6205691288444</v>
       </c>
       <c r="L22" t="n">
-        <v>873.8782009672487</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M22" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N22" t="n">
-        <v>1775.620871305806</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O22" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P22" t="n">
-        <v>2542.79701450193</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q22" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R22" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S22" t="n">
-        <v>2551.748420664258</v>
+        <v>2553.700670593815</v>
       </c>
       <c r="T22" t="n">
-        <v>2305.868974242714</v>
+        <v>2307.82122417227</v>
       </c>
       <c r="U22" t="n">
-        <v>2027.435973495819</v>
+        <v>2029.388223425375</v>
       </c>
       <c r="V22" t="n">
-        <v>1740.48046536625</v>
+        <v>1742.432715295806</v>
       </c>
       <c r="W22" t="n">
-        <v>1468.454060952541</v>
+        <v>1470.406310882097</v>
       </c>
       <c r="X22" t="n">
-        <v>1223.062306285954</v>
+        <v>1225.01455621551</v>
       </c>
       <c r="Y22" t="n">
-        <v>995.642635600062</v>
+        <v>997.5948855296181</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6069,22 +6069,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
+        <v>330.8229638057298</v>
+      </c>
+      <c r="H25" t="n">
+        <v>190.9207894961043</v>
+      </c>
+      <c r="I25" t="n">
         <v>102.2608402707796</v>
       </c>
-      <c r="H25" t="n">
-        <v>102.2608402707798</v>
-      </c>
-      <c r="I25" t="n">
-        <v>102.2608402707798</v>
-      </c>
       <c r="J25" t="n">
-        <v>188.8405254354697</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066052</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745664</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303137</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759859</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6385,7 +6385,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
         <v>881.8088617745661</v>
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477105</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309355</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324582</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831954</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
         <v>267.852115244952</v>
@@ -6686,28 +6686,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>1371.865819681875</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6835,19 +6835,19 @@
         <v>952.756877347711</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309359</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6895,7 +6895,7 @@
         <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419178</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
         <v>1371.99516675259</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.39087720671</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.64811180301</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.13803439033</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961502</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835855</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>370.2971508197255</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581786</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>532.8213911287357</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1367.171683086914</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2354.19279167554</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2354.19279167554</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>2354.19279167554</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3334.372458245846</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4162.682333079242</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4709.181119037837</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790893</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387605</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.41549767352</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403413</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750116</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574026</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566212</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278742</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>123.6303768362755</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397567</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936678</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080666</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>602.82832657168</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463123</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>293.329412385016</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882664</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>200.2197420758676</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>491.0515498823631</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>925.334784885684</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1400.892005301957</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1859.224161694961</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2294.966764156103</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361805</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461497</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579745</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290618</v>
+        <v>2683.851649999257</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281949</v>
+        <v>2437.972203577712</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.44033194793</v>
+        <v>2159.539202830817</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231237</v>
+        <v>1872.583694701248</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230405</v>
+        <v>1600.557290287539</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976693</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703678</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206711</v>
+        <v>2454.26139948385</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2027.92559644515</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390331</v>
+        <v>1603.822481397471</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1181.854406333643</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835857</v>
+        <v>765.7936465207272</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197256</v>
+        <v>376.2024849218677</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296062</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296062</v>
       </c>
       <c r="J38" t="n">
-        <v>532.8213911287357</v>
+        <v>100.3192240968443</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.171683086914</v>
+        <v>934.6695160550222</v>
       </c>
       <c r="L38" t="n">
-        <v>2354.19279167554</v>
+        <v>2009.729482307882</v>
       </c>
       <c r="M38" t="n">
-        <v>2354.19279167554</v>
+        <v>2009.729482307882</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.19279167554</v>
+        <v>3135.460465744329</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245846</v>
+        <v>4115.640132314635</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079242</v>
+        <v>4943.950007148031</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037837</v>
+        <v>4943.950007148031</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4943.950007148031</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387607</v>
+        <v>4872.104803109744</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4663.84424576066</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4416.428612855551</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750117</v>
+        <v>4065.618332567255</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3672.569547756164</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566213</v>
+        <v>3265.233754113352</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2868.754300190882</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342534</v>
       </c>
       <c r="C39" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708957</v>
       </c>
       <c r="D39" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174489</v>
       </c>
       <c r="E39" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444026</v>
       </c>
       <c r="F39" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605642</v>
       </c>
       <c r="G39" t="n">
-        <v>139.3023558596054</v>
+        <v>140.6146523267481</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296062</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>124.9426733034182</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696305</v>
       </c>
       <c r="K39" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696305</v>
       </c>
       <c r="L39" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696305</v>
       </c>
       <c r="M39" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696305</v>
       </c>
       <c r="N39" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696305</v>
       </c>
       <c r="O39" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696305</v>
       </c>
       <c r="P39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q39" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R39" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S39" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T39" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U39" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V39" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W39" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X39" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347957</v>
       </c>
       <c r="Y39" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140165</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397566</v>
+        <v>985.7887806612091</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936674</v>
+        <v>825.0337389223108</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080663</v>
+        <v>670.9624159017101</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716796</v>
+        <v>513.0110819303238</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463119</v>
+        <v>348.1106976699566</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850156</v>
+        <v>194.3260924736609</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882663</v>
+        <v>98.87900014296062</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296062</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569473</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823631</v>
+        <v>483.3605739773797</v>
       </c>
       <c r="L40" t="n">
-        <v>925.334784885684</v>
+        <v>913.1421727946375</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024847</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.028277231789</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506867</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2628.347854526506</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2808.112346440135</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2798.501194923384</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2651.066495999257</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281948</v>
+        <v>2416.993719355589</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2150.367388386571</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>1875.218550034878</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1614.998815399046</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1381.413730510335</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703677</v>
+        <v>1165.80072960232</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206711</v>
+        <v>2454.261399483851</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.648111803009</v>
+        <v>2027.92559644515</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.822481397472</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1181.854406333644</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835852</v>
+        <v>765.7936465207279</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>376.2024849218677</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296062</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296062</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>534.1336875958784</v>
       </c>
       <c r="K41" t="n">
-        <v>1228.461808239092</v>
+        <v>1368.483979554057</v>
       </c>
       <c r="L41" t="n">
-        <v>1228.461808239092</v>
+        <v>2419.807615032677</v>
       </c>
       <c r="M41" t="n">
-        <v>1228.461808239092</v>
+        <v>2419.807615032677</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675539</v>
+        <v>2419.807615032677</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245845</v>
+        <v>3399.987281602984</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079241</v>
+        <v>4228.29715643638</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037836</v>
+        <v>4774.795942394974</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790892</v>
+        <v>4943.950007148031</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4872.104803109743</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4663.844245760659</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4416.428612855552</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567255</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3672.569547756165</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566213</v>
+        <v>3265.233754113353</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2868.754300190882</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342534</v>
       </c>
       <c r="C42" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708957</v>
       </c>
       <c r="D42" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174489</v>
       </c>
       <c r="E42" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444026</v>
       </c>
       <c r="F42" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605642</v>
       </c>
       <c r="G42" t="n">
-        <v>139.3023558596054</v>
+        <v>140.6146523267481</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296062</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362754</v>
+        <v>124.9426733034182</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696305</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696305</v>
       </c>
       <c r="L42" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696305</v>
       </c>
       <c r="M42" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696305</v>
       </c>
       <c r="N42" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696305</v>
       </c>
       <c r="O42" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696305</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q42" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R42" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S42" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T42" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U42" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V42" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W42" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X42" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347957</v>
       </c>
       <c r="Y42" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140165</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>1095.290472309705</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936674</v>
+        <v>934.5354305708069</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080662</v>
+        <v>780.4641075502061</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>622.5127735788201</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463119</v>
+        <v>457.6123893184529</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850156</v>
+        <v>303.8277841221575</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>175.7322795904088</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296062</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569473</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>483.3605739773798</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856841</v>
+        <v>913.1421727946376</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024848</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.028277231789</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506867</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2628.347854526506</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2808.112346440135</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2798.501194923384</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2760.568187647753</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2526.495411004085</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.440331947929</v>
+        <v>2259.869080035067</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1984.720241683374</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1724.500507047542</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1490.915422158831</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703677</v>
+        <v>1275.302421250816</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483849</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.648111803009</v>
+        <v>2027.925596445149</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.822481397471</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1181.854406333642</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835851</v>
+        <v>765.7936465207267</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197252</v>
+        <v>376.2024849218677</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296062</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296062</v>
       </c>
       <c r="J44" t="n">
-        <v>532.8213911287357</v>
+        <v>98.87900014296062</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>933.2292921011385</v>
       </c>
       <c r="L44" t="n">
-        <v>2177.324623035296</v>
+        <v>2008.289258353998</v>
       </c>
       <c r="M44" t="n">
-        <v>3334.372458245846</v>
+        <v>2008.289258353998</v>
       </c>
       <c r="N44" t="n">
-        <v>3334.372458245846</v>
+        <v>3134.020241790445</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245846</v>
+        <v>4114.199908360752</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079242</v>
+        <v>4774.795942394974</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037837</v>
+        <v>4774.795942394974</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>4943.950007148031</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4872.104803109743</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4663.844245760658</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4416.42861285555</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567253</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3672.569547756163</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3265.23375411335</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2868.75430019088</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342534</v>
       </c>
       <c r="C45" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708957</v>
       </c>
       <c r="D45" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174489</v>
       </c>
       <c r="E45" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444026</v>
       </c>
       <c r="F45" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605642</v>
       </c>
       <c r="G45" t="n">
-        <v>139.3023558596054</v>
+        <v>140.6146523267481</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296062</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362755</v>
+        <v>124.9426733034182</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696305</v>
       </c>
       <c r="K45" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696305</v>
       </c>
       <c r="L45" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696305</v>
       </c>
       <c r="M45" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696305</v>
       </c>
       <c r="N45" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696305</v>
       </c>
       <c r="O45" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696305</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R45" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S45" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T45" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V45" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W45" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X45" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347957</v>
       </c>
       <c r="Y45" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140165</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>995.3999321779606</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936667</v>
+        <v>834.6448904390621</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080656</v>
+        <v>680.5735674184614</v>
       </c>
       <c r="E46" t="n">
-        <v>602.828326571679</v>
+        <v>522.6222334470751</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463113</v>
+        <v>357.7218491867079</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850151</v>
+        <v>203.9372439904118</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>175.7322795904087</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296062</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569473</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>483.3605739773798</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>913.1421727946376</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024848</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.028277231789</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506867</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2628.347854526506</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2808.112346440135</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2808.112346440135</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2660.677647516008</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2426.60487087234</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.440331947929</v>
+        <v>2159.978539903322</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1884.829701551629</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1624.609966915797</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976692</v>
+        <v>1391.024882027086</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1175.411881119071</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,7 +8058,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,19 +8137,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>223.0854642319582</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,22 +8453,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>6.747637174987176</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>596.694690189591</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>596.694690189591</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>596.694690189591</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>64.62454882629163</v>
+        <v>112.1603739174598</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8611,7 +8611,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>167.0048536119848</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,22 +8690,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>285.4409448467464</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>936.9046133549455</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>92.06596429261231</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>836.799416346666</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>18.36946185017496</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,16 +9164,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>809.9646888952158</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9182,7 +9182,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.7619259010007</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>361.3941496326408</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>18.36946185017496</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,10 +9717,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10191,7 +10191,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10589,10 +10589,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>996.9910187763903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>1.454771670589565</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>996.9910187763903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10841,10 +10841,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,16 +11060,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>702.667087990259</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1061.943066140021</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>818.3363029781635</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>667.2687212466899</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>38.70211601506355</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>128.0862761068138</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>80.50874676570869</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>3.361237189825715</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>301.4883792058332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>102.986369995734</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>83.62182435014238</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>290.0127116801731</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>83.62182435014154</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>207.1973566021712</v>
       </c>
     </row>
     <row r="21">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>20.09260206285805</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>102.9863699957339</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627257</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627262</v>
+        <v>139.5921776627264</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>122.9308428424042</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>32.32192807903819</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>76.08474665297359</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>108.4066747320118</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>98.89163473042862</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.515040001584019</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>796949.4434337037</v>
+        <v>799443.7438452372</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>796949.4434337037</v>
+        <v>799443.7438452372</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>798717.4544118115</v>
+        <v>799443.7438452372</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>744603.1324164965</v>
+        <v>736320.0095391357</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>744603.1324164965</v>
+        <v>755914.5740264704</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>744603.1324164964</v>
+        <v>755914.5740264704</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>744603.1324164965</v>
+        <v>755914.5740264705</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>803793.8212712194</v>
+        <v>790553.8097823047</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>803793.8212712194</v>
+        <v>800085.47955996</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>803793.8212712194</v>
+        <v>800085.47955996</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>803793.8212712194</v>
+        <v>800085.47955996</v>
       </c>
     </row>
   </sheetData>
@@ -26320,16 +26320,16 @@
         <v>147440.5129698623</v>
       </c>
       <c r="E2" t="n">
-        <v>136464.3946101205</v>
+        <v>134946.3357949878</v>
       </c>
       <c r="F2" t="n">
-        <v>136464.3946101205</v>
+        <v>138537.4573790929</v>
       </c>
       <c r="G2" t="n">
-        <v>136464.3946101205</v>
+        <v>138537.4573790929</v>
       </c>
       <c r="H2" t="n">
-        <v>136464.3946101205</v>
+        <v>138537.4573790929</v>
       </c>
       <c r="I2" t="n">
         <v>144885.8356377719</v>
@@ -26344,16 +26344,16 @@
         <v>144885.8356377719</v>
       </c>
       <c r="M2" t="n">
-        <v>147440.5129698623</v>
+        <v>144885.8356377719</v>
       </c>
       <c r="N2" t="n">
-        <v>147440.5129698624</v>
+        <v>146725.028916631</v>
       </c>
       <c r="O2" t="n">
-        <v>147440.5129698622</v>
+        <v>146725.028916631</v>
       </c>
       <c r="P2" t="n">
-        <v>147440.5129698622</v>
+        <v>146725.028916631</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>53552.24939212265</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>173901.5468405926</v>
+        <v>147420.5464117496</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>12112.31405579342</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26361.61565678313</v>
+        <v>19872.31248781268</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>43632.59295915306</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>143510.6200345134</v>
+        <v>123042.5210430562</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>9350.882464078255</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="D4" t="n">
-        <v>137612.6947546385</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>13417.20773267364</v>
+        <v>13267.95187343473</v>
       </c>
       <c r="F4" t="n">
-        <v>13417.20773267364</v>
+        <v>13621.03169637964</v>
       </c>
       <c r="G4" t="n">
-        <v>13417.20773267364</v>
+        <v>13621.03169637964</v>
       </c>
       <c r="H4" t="n">
-        <v>13417.20773267364</v>
+        <v>13621.03169637964</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26448,16 +26448,16 @@
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
-        <v>29443.15222066918</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="N4" t="n">
-        <v>29443.15222066924</v>
+        <v>25191.69126703149</v>
       </c>
       <c r="O4" t="n">
-        <v>29443.15222066924</v>
+        <v>25191.69126703157</v>
       </c>
       <c r="P4" t="n">
-        <v>29443.15222066924</v>
+        <v>25191.69126703157</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>69906.63716352714</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71690.93639223129</v>
+        <v>70604.44784155182</v>
       </c>
       <c r="F5" t="n">
-        <v>71690.93639223129</v>
+        <v>73174.64633869435</v>
       </c>
       <c r="G5" t="n">
-        <v>71690.93639223129</v>
+        <v>73174.64633869435</v>
       </c>
       <c r="H5" t="n">
-        <v>71690.93639223129</v>
+        <v>73174.64633869435</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608973</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>76130.6892809908</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608971</v>
+        <v>76130.6892809908</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>76130.6892809908</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-229475.8156921809</v>
+        <v>-272602.5634010754</v>
       </c>
       <c r="C6" t="n">
-        <v>-87284.51503247098</v>
+        <v>-48902.86481703066</v>
       </c>
       <c r="D6" t="n">
-        <v>-113631.068340426</v>
+        <v>-48902.8648170306</v>
       </c>
       <c r="E6" t="n">
-        <v>-122545.296355377</v>
+        <v>-96460.19376061077</v>
       </c>
       <c r="F6" t="n">
-        <v>51356.2504852156</v>
+        <v>39548.52841921849</v>
       </c>
       <c r="G6" t="n">
-        <v>51356.25048521557</v>
+        <v>51660.84247501189</v>
       </c>
       <c r="H6" t="n">
-        <v>51356.2504852156</v>
+        <v>51660.84247501192</v>
       </c>
       <c r="I6" t="n">
-        <v>26560.77580470362</v>
+        <v>33026.85463429138</v>
       </c>
       <c r="J6" t="n">
-        <v>-58092.07388350349</v>
+        <v>-121752.181595602</v>
       </c>
       <c r="K6" t="n">
-        <v>52922.39146148671</v>
+        <v>52899.16712210407</v>
       </c>
       <c r="L6" t="n">
-        <v>9289.798502333681</v>
+        <v>52899.1671221041</v>
       </c>
       <c r="M6" t="n">
-        <v>-101028.8740114101</v>
+        <v>-70143.35392095208</v>
       </c>
       <c r="N6" t="n">
-        <v>42481.74602310343</v>
+        <v>36045.26150404658</v>
       </c>
       <c r="O6" t="n">
-        <v>42481.74602310326</v>
+        <v>45396.14396812469</v>
       </c>
       <c r="P6" t="n">
-        <v>42481.74602310326</v>
+        <v>45396.14396812472</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>596.694690189591</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1179.127243293278</v>
+        <v>1161.257365814997</v>
       </c>
       <c r="F4" t="n">
-        <v>1179.127243293278</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="G4" t="n">
-        <v>1179.127243293278</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="H4" t="n">
-        <v>1179.127243293278</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787008</v>
       </c>
       <c r="O4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787008</v>
       </c>
       <c r="P4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787008</v>
       </c>
     </row>
   </sheetData>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>172.3988326694867</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>582.4325531036868</v>
+        <v>493.7421592071403</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>42.27300159773779</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>99.13326009146749</v>
+        <v>74.73013597200929</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>172.3988326694867</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>523.7558456666648</v>
+        <v>493.7421592071403</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>172.3988326694867</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>582.4325531036868</v>
+        <v>493.7421592071403</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>42.27300159773779</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>185.4631102447384</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>147.2153150401801</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27430,7 +27430,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>73.92098976676661</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>35.15749310933387</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.64838566658642</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>12.20628443861654</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27789,10 +27789,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>50.94851130219506</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>84.6338082530489</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,16 +27856,16 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>361.3979017735689</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>42.13535907701828</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -27919,7 +27919,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>84.63380825304814</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>213.7538446937787</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874589</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009599</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009782</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,13 +34772,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>223.0854642319582</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>6.747637174987176</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>596.694690189591</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>596.694690189591</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>596.694690189591</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>64.62454882629163</v>
+        <v>112.1603739174598</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35273,7 +35273,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -35349,7 +35349,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>167.0048536119848</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>285.4409448467464</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>936.9046133549455</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,13 +35504,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>92.06596429261231</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35650,13 +35650,13 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>836.799416346666</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>18.36946185017496</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35820,7 +35820,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35884,25 +35884,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>809.9646888952158</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.7619259010007</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36057,7 +36057,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>361.3941496326408</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>18.36946185017496</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36294,7 +36294,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36437,10 +36437,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36452,10 +36452,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36528,13 +36528,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36756,7 +36756,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36911,7 +36911,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37306,13 +37306,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>996.9910187763903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.689937777828</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>480.3608287033061</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900421</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>1.454771670589565</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>996.9910187763903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37561,10 +37561,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.689937777828</v>
+        <v>99.14283051917849</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761943</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881393</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446565</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756985</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>435.5969356313924</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>362.7056676966049</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>181.5802948622518</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,16 +37780,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>702.667087990259</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1061.943066140021</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>99.14283051917849</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761944</v>
       </c>
       <c r="L43" t="n">
-        <v>438.669934346789</v>
+        <v>434.1228270881393</v>
       </c>
       <c r="M43" t="n">
-        <v>480.360828703306</v>
+        <v>475.8137214446566</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756985</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>435.5969356313922</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>362.7056676966049</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>181.5802948622518</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>818.3363029781635</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>667.2687212466899</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>170.862691669754</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>99.14283051917849</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761944</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881393</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446566</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756985</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>435.5969356313922</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552542</v>
+        <v>362.7056676966049</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>181.5802948622518</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
